--- a/output.xlsx
+++ b/output.xlsx
@@ -7,46 +7,106 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Turnus 13" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Operations</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+  <si>
+    <t>Uke</t>
+  </si>
+  <si>
+    <t>Mandag</t>
+  </si>
+  <si>
+    <t>Tirsdag</t>
+  </si>
+  <si>
+    <t>Onsdag</t>
+  </si>
+  <si>
+    <t>Torsdag</t>
+  </si>
+  <si>
+    <t>Fredag</t>
+  </si>
+  <si>
+    <t>Lørdag</t>
+  </si>
+  <si>
+    <t>Søndag</t>
+  </si>
+  <si>
+    <t>6:00 - 15:00</t>
+  </si>
+  <si>
+    <t>5:48 - 14:58</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>21:37 - 5:58</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>5:45 - 15:30</t>
+  </si>
+  <si>
+    <t>7:15 - 16:58</t>
+  </si>
+  <si>
+    <t>9:40 - 19:06</t>
+  </si>
+  <si>
+    <t>20:50 - 5:56</t>
+  </si>
+  <si>
+    <t>22:01 - 6:41</t>
+  </si>
+  <si>
+    <t>14:01 - 21:11</t>
+  </si>
+  <si>
+    <t>22:51 - 6:08</t>
+  </si>
+  <si>
+    <t>9:42 - 18:39</t>
+  </si>
+  <si>
+    <t>14:00 - 22:00</t>
+  </si>
+  <si>
+    <t>8:01 - 16:43</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>15:03 - 23:01</t>
+  </si>
+  <si>
+    <t>14:15 - 21:11</t>
+  </si>
+  <si>
+    <t>6:45 - 13:58</t>
+  </si>
+  <si>
+    <t>16:12 - 23:07</t>
+  </si>
+  <si>
+    <t>10:07 - 19:00</t>
+  </si>
+  <si>
+    <t>6:23 - 14:36</t>
+  </si>
+  <si>
+    <t>22:53 - 5:58</t>
   </si>
 </sst>
 </file>
@@ -105,33 +165,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF7ABFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFED7777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A4A4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF13BD57"/>
         </patternFill>
       </fill>
     </dxf>
@@ -425,16 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,58 +527,1032 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>35</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>35</formula>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=4)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=9)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=6)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=4)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=9)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=6)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=4)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=9)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=6)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=4)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=9)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=6)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=4)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=9)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=6)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="23">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="24">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="25">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=4)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=9)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="27">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=6)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="28">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="29">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="30">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=4)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=9)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=6)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="34">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="36">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=4)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=9)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="37">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=6)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="38">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=4)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=9)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=6)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="43">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="44">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="45">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=4)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=9)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=6)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="49">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="50">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=4)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=9)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=6)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="53">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="54">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="55">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="56">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=4)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=9)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="57">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=6)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="58">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="59">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="60">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=4)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=9)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=6)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="64">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="66">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=4)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=9)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=6)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="68">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="71">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=4)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=9)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="72">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=6)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="74">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="75">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="76">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=4)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=9)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="77">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=6)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="78">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="79">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="80">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=4)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=9)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=6)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="83">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="84">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="85">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="86">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=4)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=9)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=6)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="88">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="89">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="90">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=4)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=9)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=6)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="94">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="96">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=4)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=9)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="97">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=6)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="98">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=4)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=9)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=6)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="103">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="104">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="105">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="106">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=4)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=9)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="107">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=6)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="108">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="109">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="110">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="111">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=4)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=9)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="112">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=6)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="113">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="114">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="115">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="116">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=4)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=9)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="117">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=6)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="118">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="119">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="120">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=4)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=9)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=6)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="124">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="126">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=4)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=9)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="127">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=6)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="128">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="131">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=4)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=9)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="132">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=6)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="133">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="134">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="135">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="136">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=4)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=9)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="137">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=6)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="138">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="139">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="140">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="141">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=4)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=9)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="142">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=6)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="143">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="145">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="146">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=4)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=9)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="147">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=6)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="148">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="149">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="150">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=4)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=9)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=6)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="154">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="156">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=4)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=9)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="157">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=6)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="158">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="161">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=4)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=9)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="162">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=6)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="163">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="164">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="165">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="166">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=4)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=9)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="167">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=6)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="168">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="169">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="170">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="171">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=4)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=9)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="172">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=6)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="173">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="174">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="175">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="176">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=4)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=9)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="177">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=6)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="178">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="179">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="180">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=4)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=9)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=6)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="184">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="186">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=4)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=9)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="187">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=6)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="188">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="191">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=4)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=9)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="192">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=6)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="193">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="194">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="195">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="196">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=4)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=9)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="197">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=6)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="198">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="199">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="200">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="201">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=4)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=9)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="202">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=6)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="203">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="204">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="205">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="206">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=4)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=9)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="207">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=6)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="208">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="209">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="210">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,19 +7,390 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OSL_15" sheetId="1" r:id="rId1"/>
+    <sheet name="OSL_16" sheetId="2" r:id="rId2"/>
+    <sheet name="OSL_17" sheetId="3" r:id="rId3"/>
+    <sheet name="OSL_18" sheetId="4" r:id="rId4"/>
+    <sheet name="OSL_19" sheetId="5" r:id="rId5"/>
+    <sheet name="OSL_20" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="124">
+  <si>
+    <t>Uke</t>
+  </si>
+  <si>
+    <t>Mandag</t>
+  </si>
+  <si>
+    <t>Tirsdag</t>
+  </si>
+  <si>
+    <t>Onsdag</t>
+  </si>
+  <si>
+    <t>Torsdag</t>
+  </si>
+  <si>
+    <t>Fredag</t>
+  </si>
+  <si>
+    <t>Lørdag</t>
+  </si>
+  <si>
+    <t>Søndag</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>8:01 - 15:31</t>
+  </si>
+  <si>
+    <t>15:03 - 23:10</t>
+  </si>
+  <si>
+    <t>6:00 - 15:00</t>
+  </si>
+  <si>
+    <t>15:01 - 21:58</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>20:12 - 7:27</t>
+  </si>
+  <si>
+    <t>9:42 - 18:39</t>
+  </si>
+  <si>
+    <t>15:00 - 1:00</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>7:18 - 13:26</t>
+  </si>
+  <si>
+    <t>23:30 - 7:30</t>
+  </si>
+  <si>
+    <t>21:37 - 5:58</t>
+  </si>
+  <si>
+    <t>13:00 - 22:00</t>
+  </si>
+  <si>
+    <t>15:07 - 23:11</t>
+  </si>
+  <si>
+    <t>17:37 - 23:58</t>
+  </si>
+  <si>
+    <t>17:35 - 2:38</t>
+  </si>
+  <si>
+    <t>7:58 - 17:17</t>
+  </si>
+  <si>
+    <t>23:58 - 8:58</t>
+  </si>
+  <si>
+    <t>15:37 - 0:08</t>
+  </si>
+  <si>
+    <t>7:50 - 16:43</t>
+  </si>
+  <si>
+    <t>22:37 - 7:06</t>
+  </si>
+  <si>
+    <t>15:48 - 23:49</t>
+  </si>
+  <si>
+    <t>8:48 - 17:56</t>
+  </si>
+  <si>
+    <t>14:45 - 22:56</t>
+  </si>
+  <si>
+    <t>14:15 - 21:11</t>
+  </si>
+  <si>
+    <t>23:07 - 7:06</t>
+  </si>
+  <si>
+    <t>20:52 - 6:36</t>
+  </si>
+  <si>
+    <t>20:50 - 5:56</t>
+  </si>
+  <si>
+    <t>15:46 - 22:11</t>
+  </si>
+  <si>
+    <t>14:16 - 23:03</t>
+  </si>
+  <si>
+    <t>6:15 - 11:55</t>
+  </si>
+  <si>
+    <t>23:37 - 7:31</t>
+  </si>
+  <si>
+    <t>14:23 - 20:33</t>
+  </si>
+  <si>
+    <t>5:48 - 14:58</t>
+  </si>
+  <si>
+    <t>23:13 - 6:38</t>
+  </si>
+  <si>
+    <t>14:48 - 0:18</t>
+  </si>
+  <si>
+    <t>5:31 - 15:01</t>
+  </si>
+  <si>
+    <t>10:16 - 17:36</t>
+  </si>
+  <si>
+    <t>14:28 - 22:41</t>
+  </si>
+  <si>
+    <t>8:58 - 17:56</t>
+  </si>
+  <si>
+    <t>9:10 - 18:17</t>
+  </si>
+  <si>
+    <t>23:45 - 8:06</t>
+  </si>
+  <si>
+    <t>19:48 - 5:56</t>
+  </si>
+  <si>
+    <t>13:38 - 19:31</t>
+  </si>
+  <si>
+    <t>14:16 - 21:25</t>
+  </si>
+  <si>
+    <t>9:40 - 19:06</t>
+  </si>
+  <si>
+    <t>5:33 - 12:38</t>
+  </si>
+  <si>
+    <t>12:56 - 20:47</t>
+  </si>
+  <si>
+    <t>22:51 - 6:08</t>
+  </si>
+  <si>
+    <t>6:38 - 15:41</t>
+  </si>
+  <si>
+    <t>6:01 - 14:11</t>
+  </si>
+  <si>
+    <t>22:31 - 6:11</t>
+  </si>
+  <si>
+    <t>6:53 - 14:41</t>
+  </si>
+  <si>
+    <t>13:28 - 22:16</t>
+  </si>
+  <si>
+    <t>14:18 - 22:33</t>
+  </si>
+  <si>
+    <t>14:01 - 21:11</t>
+  </si>
+  <si>
+    <t>7:21 - 14:33</t>
+  </si>
+  <si>
+    <t>15:12 - 23:23</t>
+  </si>
+  <si>
+    <t>7:39 - 17:28</t>
+  </si>
+  <si>
+    <t>13:13 - 21:21</t>
+  </si>
+  <si>
+    <t>6:33 - 13:11</t>
+  </si>
+  <si>
+    <t>15:58 - 23:33</t>
+  </si>
+  <si>
+    <t>6:58 - 16:45</t>
+  </si>
+  <si>
+    <t>17:18 - 23:51</t>
+  </si>
+  <si>
+    <t>20:21 - 7:28</t>
+  </si>
+  <si>
+    <t>7:28 - 16:13</t>
+  </si>
+  <si>
+    <t>17:21 - 23:20</t>
+  </si>
+  <si>
+    <t>6:05 - 14:45</t>
+  </si>
+  <si>
+    <t>5:48 - 14:18</t>
+  </si>
+  <si>
+    <t>6:33 - 13:13</t>
+  </si>
+  <si>
+    <t>14:27 - 22:41</t>
+  </si>
+  <si>
+    <t>6:28 - 16:06</t>
+  </si>
+  <si>
+    <t>14:53 - 23:55</t>
+  </si>
+  <si>
+    <t>7:39 - 16:45</t>
+  </si>
+  <si>
+    <t>17:18 - 22:30</t>
+  </si>
+  <si>
+    <t>6:31 - 14:25</t>
+  </si>
+  <si>
+    <t>9:58 - 16:17</t>
+  </si>
+  <si>
+    <t>6:56 - 11:33</t>
+  </si>
+  <si>
+    <t>23:23 - 7:28</t>
+  </si>
+  <si>
+    <t>5:11 - 14:41</t>
+  </si>
+  <si>
+    <t>11:10 - 20:43</t>
+  </si>
+  <si>
+    <t>21:34 - 5:43</t>
+  </si>
+  <si>
+    <t>7:01 - 14:41</t>
+  </si>
+  <si>
+    <t>16:02 - 23:44</t>
+  </si>
+  <si>
+    <t>14:58 - 21:20</t>
+  </si>
+  <si>
+    <t>6:10 - 13:26</t>
+  </si>
+  <si>
+    <t>14:01 - 21:08</t>
+  </si>
+  <si>
+    <t>21:23 - 7:28</t>
+  </si>
+  <si>
+    <t>7:05 - 15:38</t>
+  </si>
+  <si>
+    <t>14:00 - 22:24</t>
+  </si>
+  <si>
+    <t>16:02 - 22:13</t>
+  </si>
+  <si>
+    <t>15:28 - 0:06</t>
+  </si>
+  <si>
+    <t>8:42 - 15:45</t>
+  </si>
+  <si>
+    <t>17:18 - 22:50</t>
+  </si>
+  <si>
+    <t>7:33 - 14:08</t>
+  </si>
+  <si>
+    <t>13:18 - 22:26</t>
+  </si>
+  <si>
+    <t>7:49 - 13:31</t>
+  </si>
+  <si>
+    <t>11:48 - 21:11</t>
+  </si>
+  <si>
+    <t>6:21 - 15:01</t>
+  </si>
+  <si>
+    <t>0:11 - 14:23 - 20:33</t>
+  </si>
+  <si>
+    <t>14:31 - 23:17</t>
+  </si>
+  <si>
+    <t>10:00 - 20:00</t>
+  </si>
+  <si>
+    <t>14:35 - 21:50</t>
+  </si>
+  <si>
+    <t>22:35 - 7:01</t>
+  </si>
+  <si>
+    <t>13:40 - 21:41</t>
+  </si>
+  <si>
+    <t>22:45 - 6:45</t>
+  </si>
+  <si>
+    <t>7:17 - 15:17</t>
+  </si>
+  <si>
+    <t>15:35 - 22:33</t>
+  </si>
+  <si>
+    <t>6:33 - 14:00</t>
+  </si>
+  <si>
+    <t>20:01 - 7:38</t>
+  </si>
+  <si>
+    <t>7:28 - 14:38</t>
+  </si>
+  <si>
+    <t>6:01 - 14:13</t>
+  </si>
+  <si>
+    <t>20:43 - 5:41</t>
+  </si>
+  <si>
+    <t>16:31 - 0:11</t>
+  </si>
+  <si>
+    <t>14:00 - 23:00</t>
   </si>
 </sst>
 </file>
@@ -78,16 +449,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7ABFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6BC4C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED7777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A4A4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF13BD57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -377,45 +802,6206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
         <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt; 16)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=3)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1)) &lt;= 8)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=9)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=17)AND (VALUE(MID(B2, SEARCH(":", B2, SEARCH(":", B2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(VALUE(LEFT(B2,SEARCH(":",B2)-1))&gt;=18)AND (VALUE(LEFT(B2,SEARCH(":",B2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(B2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt; 16)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=3)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1)) &lt;= 8)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=9)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=17)AND (VALUE(MID(B3, SEARCH(":", B3, SEARCH(":", B3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>(VALUE(LEFT(B3,SEARCH(":",B3)-1))&gt;=18)AND (VALUE(LEFT(B3,SEARCH(":",B3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>(B3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt; 16)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=3)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1)) &lt;= 8)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=9)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=17)AND (VALUE(MID(B4, SEARCH(":", B4, SEARCH(":", B4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>(VALUE(LEFT(B4,SEARCH(":",B4)-1))&gt;=18)AND (VALUE(LEFT(B4,SEARCH(":",B4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>(B4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt; 16)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=3)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1)) &lt;= 8)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=9)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=17)AND (VALUE(MID(B5, SEARCH(":", B5, SEARCH(":", B5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>(VALUE(LEFT(B5,SEARCH(":",B5)-1))&gt;=18)AND (VALUE(LEFT(B5,SEARCH(":",B5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23">
+      <formula>(B5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt; 16)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=3)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1)) &lt;= 8)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=9)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=17)AND (VALUE(MID(B6, SEARCH(":", B6, SEARCH(":", B6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>(VALUE(LEFT(B6,SEARCH(":",B6)-1))&gt;=18)AND (VALUE(LEFT(B6,SEARCH(":",B6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>(B6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt; 16)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="32">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=3)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1)) &lt;= 8)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=9)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=17)AND (VALUE(MID(B7, SEARCH(":", B7, SEARCH(":", B7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>(VALUE(LEFT(B7,SEARCH(":",B7)-1))&gt;=18)AND (VALUE(LEFT(B7,SEARCH(":",B7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>(B7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt; 16)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=3)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1)) &lt;= 8)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="39">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=9)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=17)AND (VALUE(MID(C2, SEARCH(":", C2, SEARCH(":", C2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="40">
+      <formula>(VALUE(LEFT(C2,SEARCH(":",C2)-1))&gt;=18)AND (VALUE(LEFT(C2,SEARCH(":",C2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>(C2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt; 16)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=3)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1)) &lt;= 8)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=9)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=17)AND (VALUE(MID(C3, SEARCH(":", C3, SEARCH(":", C3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>(VALUE(LEFT(C3,SEARCH(":",C3)-1))&gt;=18)AND (VALUE(LEFT(C3,SEARCH(":",C3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>(C3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt; 16)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=3)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1)) &lt;= 8)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=9)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=17)AND (VALUE(MID(C4, SEARCH(":", C4, SEARCH(":", C4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>(VALUE(LEFT(C4,SEARCH(":",C4)-1))&gt;=18)AND (VALUE(LEFT(C4,SEARCH(":",C4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>(C4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt; 16)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=3)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1)) &lt;= 8)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="57">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=9)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=17)AND (VALUE(MID(C5, SEARCH(":", C5, SEARCH(":", C5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="58">
+      <formula>(VALUE(LEFT(C5,SEARCH(":",C5)-1))&gt;=18)AND (VALUE(LEFT(C5,SEARCH(":",C5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="59">
+      <formula>(C5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="60">
+      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt; 16)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="62">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=3)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1)) &lt;= 8)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=9)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=17)AND (VALUE(MID(C6, SEARCH(":", C6, SEARCH(":", C6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="64">
+      <formula>(VALUE(LEFT(C6,SEARCH(":",C6)-1))&gt;=18)AND (VALUE(LEFT(C6,SEARCH(":",C6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>(C6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="66">
+      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="67">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt; 16)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="68">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=3)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1)) &lt;= 8)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=9)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=17)AND (VALUE(MID(C7, SEARCH(":", C7, SEARCH(":", C7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>(VALUE(LEFT(C7,SEARCH(":",C7)-1))&gt;=18)AND (VALUE(LEFT(C7,SEARCH(":",C7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>(C7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt; 16)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=3)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1)) &lt;= 8)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=9)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=17)AND (VALUE(MID(D2, SEARCH(":", D2, SEARCH(":", D2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>(VALUE(LEFT(D2,SEARCH(":",D2)-1))&gt;=18)AND (VALUE(LEFT(D2,SEARCH(":",D2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>(D2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="79">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt; 16)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=3)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1)) &lt;= 8)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="81">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=9)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=17)AND (VALUE(MID(D3, SEARCH(":", D3, SEARCH(":", D3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>(VALUE(LEFT(D3,SEARCH(":",D3)-1))&gt;=18)AND (VALUE(LEFT(D3,SEARCH(":",D3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>(D3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="84">
+      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="85">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt; 16)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=3)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1)) &lt;= 8)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="87">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=9)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=17)AND (VALUE(MID(D4, SEARCH(":", D4, SEARCH(":", D4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>(VALUE(LEFT(D4,SEARCH(":",D4)-1))&gt;=18)AND (VALUE(LEFT(D4,SEARCH(":",D4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>(D4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="90">
+      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt; 16)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="92">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=3)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1)) &lt;= 8)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=9)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=17)AND (VALUE(MID(D5, SEARCH(":", D5, SEARCH(":", D5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>(VALUE(LEFT(D5,SEARCH(":",D5)-1))&gt;=18)AND (VALUE(LEFT(D5,SEARCH(":",D5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>(D5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="96">
+      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt; 16)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=3)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1)) &lt;= 8)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=9)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=17)AND (VALUE(MID(D6, SEARCH(":", D6, SEARCH(":", D6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>(VALUE(LEFT(D6,SEARCH(":",D6)-1))&gt;=18)AND (VALUE(LEFT(D6,SEARCH(":",D6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>(D6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="102">
+      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt; 16)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="104">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=3)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1)) &lt;= 8)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=9)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=17)AND (VALUE(MID(D7, SEARCH(":", D7, SEARCH(":", D7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>(VALUE(LEFT(D7,SEARCH(":",D7)-1))&gt;=18)AND (VALUE(LEFT(D7,SEARCH(":",D7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>(D7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="108">
+      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt; 16)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=3)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1)) &lt;= 8)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=9)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=17)AND (VALUE(MID(E2, SEARCH(":", E2, SEARCH(":", E2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>(VALUE(LEFT(E2,SEARCH(":",E2)-1))&gt;=18)AND (VALUE(LEFT(E2,SEARCH(":",E2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>(E2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="0" priority="115">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt; 16)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="116">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=3)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1)) &lt;= 8)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="117">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=9)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=17)AND (VALUE(MID(E3, SEARCH(":", E3, SEARCH(":", E3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="118">
+      <formula>(VALUE(LEFT(E3,SEARCH(":",E3)-1))&gt;=18)AND (VALUE(LEFT(E3,SEARCH(":",E3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>(E3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt; 16)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=3)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1)) &lt;= 8)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="123">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=9)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=17)AND (VALUE(MID(E4, SEARCH(":", E4, SEARCH(":", E4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="124">
+      <formula>(VALUE(LEFT(E4,SEARCH(":",E4)-1))&gt;=18)AND (VALUE(LEFT(E4,SEARCH(":",E4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>(E4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="126">
+      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="127">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt; 16)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=3)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1)) &lt;= 8)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="129">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=9)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=17)AND (VALUE(MID(E5, SEARCH(":", E5, SEARCH(":", E5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="130">
+      <formula>(VALUE(LEFT(E5,SEARCH(":",E5)-1))&gt;=18)AND (VALUE(LEFT(E5,SEARCH(":",E5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="131">
+      <formula>(E5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="132">
+      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="133">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt; 16)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=3)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1)) &lt;= 8)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="135">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=9)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=17)AND (VALUE(MID(E6, SEARCH(":", E6, SEARCH(":", E6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="136">
+      <formula>(VALUE(LEFT(E6,SEARCH(":",E6)-1))&gt;=18)AND (VALUE(LEFT(E6,SEARCH(":",E6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>(E6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="138">
+      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="139">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt; 16)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="140">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=3)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1)) &lt;= 8)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="141">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=9)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=17)AND (VALUE(MID(E7, SEARCH(":", E7, SEARCH(":", E7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>(VALUE(LEFT(E7,SEARCH(":",E7)-1))&gt;=18)AND (VALUE(LEFT(E7,SEARCH(":",E7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>(E7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="144">
+      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt; 16)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=3)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1)) &lt;= 8)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=9)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=17)AND (VALUE(MID(F2, SEARCH(":", F2, SEARCH(":", F2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>(VALUE(LEFT(F2,SEARCH(":",F2)-1))&gt;=18)AND (VALUE(LEFT(F2,SEARCH(":",F2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>(F2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt; 16)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=3)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1)) &lt;= 8)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="153">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=9)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=17)AND (VALUE(MID(F3, SEARCH(":", F3, SEARCH(":", F3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="154">
+      <formula>(VALUE(LEFT(F3,SEARCH(":",F3)-1))&gt;=18)AND (VALUE(LEFT(F3,SEARCH(":",F3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>(F3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt; 16)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=3)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1)) &lt;= 8)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=9)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=17)AND (VALUE(MID(F4, SEARCH(":", F4, SEARCH(":", F4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>(VALUE(LEFT(F4,SEARCH(":",F4)-1))&gt;=18)AND (VALUE(LEFT(F4,SEARCH(":",F4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>(F4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="0" priority="163">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt; 16)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="164">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=3)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1)) &lt;= 8)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=9)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=17)AND (VALUE(MID(F5, SEARCH(":", F5, SEARCH(":", F5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>(VALUE(LEFT(F5,SEARCH(":",F5)-1))&gt;=18)AND (VALUE(LEFT(F5,SEARCH(":",F5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>(F5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="168">
+      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt; 16)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=3)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1)) &lt;= 8)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=9)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=17)AND (VALUE(MID(F6, SEARCH(":", F6, SEARCH(":", F6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>(VALUE(LEFT(F6,SEARCH(":",F6)-1))&gt;=18)AND (VALUE(LEFT(F6,SEARCH(":",F6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>(F6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="174">
+      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="175">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt; 16)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="176">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=3)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1)) &lt;= 8)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=9)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=17)AND (VALUE(MID(F7, SEARCH(":", F7, SEARCH(":", F7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>(VALUE(LEFT(F7,SEARCH(":",F7)-1))&gt;=18)AND (VALUE(LEFT(F7,SEARCH(":",F7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>(F7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="180">
+      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="181">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt; 16)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="182">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=3)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1)) &lt;= 8)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=9)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=17)AND (VALUE(MID(G2, SEARCH(":", G2, SEARCH(":", G2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>(VALUE(LEFT(G2,SEARCH(":",G2)-1))&gt;=18)AND (VALUE(LEFT(G2,SEARCH(":",G2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="185">
+      <formula>(G2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="186">
+      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt; 16)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=3)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1)) &lt;= 8)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=9)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=17)AND (VALUE(MID(G3, SEARCH(":", G3, SEARCH(":", G3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>(VALUE(LEFT(G3,SEARCH(":",G3)-1))&gt;=18)AND (VALUE(LEFT(G3,SEARCH(":",G3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>(G3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="192">
+      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt; 16)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="194">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=3)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1)) &lt;= 8)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=9)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=17)AND (VALUE(MID(G4, SEARCH(":", G4, SEARCH(":", G4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>(VALUE(LEFT(G4,SEARCH(":",G4)-1))&gt;=18)AND (VALUE(LEFT(G4,SEARCH(":",G4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>(G4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="0" priority="199">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt; 16)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=3)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1)) &lt;= 8)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=9)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=17)AND (VALUE(MID(G5, SEARCH(":", G5, SEARCH(":", G5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>(VALUE(LEFT(G5,SEARCH(":",G5)-1))&gt;=18)AND (VALUE(LEFT(G5,SEARCH(":",G5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>(G5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="205">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt; 16)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="206">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=3)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1)) &lt;= 8)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="207">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=9)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=17)AND (VALUE(MID(G6, SEARCH(":", G6, SEARCH(":", G6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="208">
+      <formula>(VALUE(LEFT(G6,SEARCH(":",G6)-1))&gt;=18)AND (VALUE(LEFT(G6,SEARCH(":",G6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>(G6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="211">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt; 16)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="212">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=3)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1)) &lt;= 8)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="213">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=9)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=17)AND (VALUE(MID(G7, SEARCH(":", G7, SEARCH(":", G7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>(VALUE(LEFT(G7,SEARCH(":",G7)-1))&gt;=18)AND (VALUE(LEFT(G7,SEARCH(":",G7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="215">
+      <formula>(G7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt; 16)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=3)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1)) &lt;= 8)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=9)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=17)AND (VALUE(MID(H2, SEARCH(":", H2, SEARCH(":", H2)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>(VALUE(LEFT(H2,SEARCH(":",H2)-1))&gt;=18)AND (VALUE(LEFT(H2,SEARCH(":",H2)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>(H2="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="0" priority="223">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt; 16)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="224">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=3)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1)) &lt;= 8)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="225">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=9)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=17)AND (VALUE(MID(H3, SEARCH(":", H3, SEARCH(":", H3)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>(VALUE(LEFT(H3,SEARCH(":",H3)-1))&gt;=18)AND (VALUE(LEFT(H3,SEARCH(":",H3)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="227">
+      <formula>(H3="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="228">
+      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt; 16)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=3)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1)) &lt;= 8)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="231">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=9)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=17)AND (VALUE(MID(H4, SEARCH(":", H4, SEARCH(":", H4)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="232">
+      <formula>(VALUE(LEFT(H4,SEARCH(":",H4)-1))&gt;=18)AND (VALUE(LEFT(H4,SEARCH(":",H4)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>(H4="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt; 16)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="236">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=3)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1)) &lt;= 8)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="237">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=9)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=17)AND (VALUE(MID(H5, SEARCH(":", H5, SEARCH(":", H5)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>(VALUE(LEFT(H5,SEARCH(":",H5)-1))&gt;=18)AND (VALUE(LEFT(H5,SEARCH(":",H5)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>(H5="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="0" priority="241">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt; 16)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="242">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=3)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1)) &lt;= 8)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="243">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=9)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=17)AND (VALUE(MID(H6, SEARCH(":", H6, SEARCH(":", H6)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>(VALUE(LEFT(H6,SEARCH(":",H6)-1))&gt;=18)AND (VALUE(LEFT(H6,SEARCH(":",H6)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>(H6="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="0" priority="247">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt; 16)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &lt; 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="248">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=3)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1)) &lt;= 8)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="249">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=9)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=17)AND (VALUE(MID(H7, SEARCH(":", H7, SEARCH(":", H7)+1)-2, 2)) &gt;= 16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="250">
+      <formula>(VALUE(LEFT(H7,SEARCH(":",H7)-1))&gt;=18)AND (VALUE(LEFT(H7,SEARCH(":",H7)-1))&lt;=23)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>(H7="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="252">
+      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="49">
   <si>
     <t>Uke</t>
   </si>
@@ -41,30 +41,33 @@
     <t>Søndag</t>
   </si>
   <si>
+    <t>6:00 - 14:00 - 9324-X</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>14:36 - 22:23</t>
+  </si>
+  <si>
+    <t>8:01 - 17:29</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>23:37 - 7:31</t>
+  </si>
+  <si>
+    <t>13:31 - 21:23</t>
+  </si>
+  <si>
     <t>6:00 - 14:00</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>14:36 - 22:23</t>
-  </si>
-  <si>
-    <t>8:01 - 17:29</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>23:37 - 7:31</t>
-  </si>
-  <si>
-    <t>13:31 - 21:23</t>
-  </si>
-  <si>
     <t>15:00 - 23:00</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>7:43 - 16:20</t>
+  </si>
+  <si>
+    <t>15:00 - 23:00 - 9309</t>
   </si>
   <si>
     <t>15:08 - 22:26</t>
@@ -220,7 +226,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="32" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -617,19 +623,19 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="32" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -640,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -655,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="32" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -666,22 +672,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="32" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -693,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -705,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="32" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -716,20 +722,20 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="32" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -740,13 +746,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -1638,15 +1644,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="32" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -1656,27 +1662,27 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="32" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1688,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="32" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1696,25 +1702,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="32" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1722,14 +1728,14 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -1738,7 +1744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="32" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1749,37 +1755,37 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="32" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Uke</t>
   </si>
@@ -41,127 +41,178 @@
     <t>Søndag</t>
   </si>
   <si>
-    <t>6:00 - 14:00 - 9324-X</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>14:36 - 22:23</t>
-  </si>
-  <si>
-    <t>8:01 - 17:29</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>23:37 - 7:31</t>
-  </si>
-  <si>
-    <t>13:31 - 21:23</t>
-  </si>
-  <si>
-    <t>6:00 - 14:00</t>
-  </si>
-  <si>
-    <t>15:00 - 23:00</t>
-  </si>
-  <si>
-    <t>21:39 - 5:45</t>
-  </si>
-  <si>
-    <t>14:00 - 22:00</t>
-  </si>
-  <si>
-    <t>9:40 - 19:06</t>
-  </si>
-  <si>
-    <t>5:30 - 15:00</t>
-  </si>
-  <si>
-    <t>7:13 - 15:01</t>
-  </si>
-  <si>
-    <t>14:01 - 21:42</t>
-  </si>
-  <si>
-    <t>5:00 - 13:00</t>
-  </si>
-  <si>
-    <t>7:17 - 15:17</t>
-  </si>
-  <si>
-    <t>6:00 - 15:00</t>
-  </si>
-  <si>
-    <t>16:07 - 22:38</t>
-  </si>
-  <si>
-    <t>23:00 - 7:00</t>
-  </si>
-  <si>
-    <t>7:35 - 15:47</t>
-  </si>
-  <si>
-    <t>13:00 - 21:00</t>
-  </si>
-  <si>
-    <t>23:45 - 7:36</t>
-  </si>
-  <si>
-    <t>7:43 - 16:20</t>
-  </si>
-  <si>
-    <t>15:00 - 23:00 - 9309</t>
-  </si>
-  <si>
-    <t>15:08 - 22:26</t>
-  </si>
-  <si>
-    <t>23:23 - 6:28</t>
-  </si>
-  <si>
-    <t>6:00 - 16:00</t>
-  </si>
-  <si>
-    <t>21:23 - 7:28</t>
-  </si>
-  <si>
-    <t>14:45 - 22:56</t>
-  </si>
-  <si>
-    <t>22:00 - 6:00</t>
-  </si>
-  <si>
-    <t>6:33 - 13:13</t>
-  </si>
-  <si>
-    <t>7:00 - 16:00</t>
-  </si>
-  <si>
-    <t>15:12 - 22:20</t>
-  </si>
-  <si>
-    <t>7:21 - 14:33</t>
-  </si>
-  <si>
-    <t>7:00 - 15:00</t>
-  </si>
-  <si>
-    <t>9:41 - 20:08</t>
-  </si>
-  <si>
-    <t>13:28 - 22:38</t>
-  </si>
-  <si>
-    <t>10:35 - 19:38</t>
-  </si>
-  <si>
-    <t>15:18 - 22:28</t>
+    <t>6:00 - 14:00 9324-X</t>
+  </si>
+  <si>
+    <t>TT 5018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX </t>
+  </si>
+  <si>
+    <t>14:36 - 22:23 3006</t>
+  </si>
+  <si>
+    <t>8:01 - 17:29 9303</t>
+  </si>
+  <si>
+    <t>OO 9309</t>
+  </si>
+  <si>
+    <t>23:37 - 7:31 1576</t>
+  </si>
+  <si>
+    <t>13:31 - 21:23 9327-X</t>
+  </si>
+  <si>
+    <t>OO 1429</t>
+  </si>
+  <si>
+    <t>6:00 - 14:00 905301500</t>
+  </si>
+  <si>
+    <t>15:00 - 23:00 9308</t>
+  </si>
+  <si>
+    <t>8:01 - 17:29 5014</t>
+  </si>
+  <si>
+    <t>21:39 - 5:45 1567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 - 22:00 </t>
+  </si>
+  <si>
+    <t>9:40 - 19:06 5005-73</t>
+  </si>
+  <si>
+    <t>5:30 - 15:00 9301</t>
+  </si>
+  <si>
+    <t>14:00 - 22:00 9329-X</t>
+  </si>
+  <si>
+    <t>7:13 - 15:01 1424-Mod1</t>
+  </si>
+  <si>
+    <t>TT 9906001500-H</t>
+  </si>
+  <si>
+    <t>14:01 - 21:42 1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00 - 13:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00 - 23:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:17 - 15:17 </t>
+  </si>
+  <si>
+    <t>OO 1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:00 - 15:00 </t>
+  </si>
+  <si>
+    <t>16:07 - 22:38 9306</t>
+  </si>
+  <si>
+    <t>23:00 - 7:00 9312</t>
+  </si>
+  <si>
+    <t>7:35 - 15:47 1705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00 - 21:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OO </t>
+  </si>
+  <si>
+    <t>23:45 - 7:36 1775</t>
+  </si>
+  <si>
+    <t>7:43 - 16:20 3008</t>
+  </si>
+  <si>
+    <t>15:00 - 23:00 9309</t>
+  </si>
+  <si>
+    <t>15:08 - 22:26 5005-73</t>
+  </si>
+  <si>
+    <t>OO 906001600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:31 - 21:23 </t>
+  </si>
+  <si>
+    <t>23:23 - 6:28 3119</t>
+  </si>
+  <si>
+    <t>14:01 - 21:42 1447</t>
+  </si>
+  <si>
+    <t>6:00 - 16:00 9322-X</t>
+  </si>
+  <si>
+    <t>21:23 - 7:28 3109</t>
+  </si>
+  <si>
+    <t>14:45 - 22:56 9330-X</t>
+  </si>
+  <si>
+    <t>22:00 - 6:00 9331-X</t>
+  </si>
+  <si>
+    <t>6:00 - 16:00 5002</t>
+  </si>
+  <si>
+    <t>XX 9323-X</t>
+  </si>
+  <si>
+    <t>6:33 - 13:13 1458-Mod1</t>
+  </si>
+  <si>
+    <t>TT 3101</t>
+  </si>
+  <si>
+    <t>OO 9323-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT </t>
+  </si>
+  <si>
+    <t>6:00 - 14:00 9305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00 - 16:00 </t>
+  </si>
+  <si>
+    <t>15:12 - 22:20 3020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:21 - 14:33 </t>
+  </si>
+  <si>
+    <t>6:00 - 14:00 3031</t>
+  </si>
+  <si>
+    <t>7:00 - 15:00 3134</t>
+  </si>
+  <si>
+    <t>9:41 - 20:08 3132</t>
+  </si>
+  <si>
+    <t>13:28 - 22:38 5004</t>
+  </si>
+  <si>
+    <t>10:35 - 19:38 3006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:18 - 22:28 </t>
   </si>
 </sst>
 </file>
@@ -620,19 +671,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1">
@@ -646,19 +697,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1">
@@ -672,19 +723,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" customHeight="1">
@@ -696,19 +747,19 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" customHeight="1">
@@ -722,17 +773,17 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" customHeight="1">
@@ -746,19 +797,19 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +830,7 @@
       <formula>(B2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+      <formula>(B2="XX ")OR (B2="OO ")OR (B2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
@@ -799,7 +850,7 @@
       <formula>(B3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+      <formula>(B3="XX ")OR (B3="OO ")OR (B3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -819,7 +870,7 @@
       <formula>(B4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="18">
-      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+      <formula>(B4="XX ")OR (B4="OO ")OR (B4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
@@ -839,7 +890,7 @@
       <formula>(B5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="24">
-      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+      <formula>(B5="XX ")OR (B5="OO ")OR (B5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
@@ -859,7 +910,7 @@
       <formula>(B6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="30">
-      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+      <formula>(B6="XX ")OR (B6="OO ")OR (B6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
@@ -879,7 +930,7 @@
       <formula>(B7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="36">
-      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+      <formula>(B7="XX ")OR (B7="OO ")OR (B7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
@@ -899,7 +950,7 @@
       <formula>(C2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="42">
-      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+      <formula>(C2="XX ")OR (C2="OO ")OR (C2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
@@ -919,7 +970,7 @@
       <formula>(C3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="48">
-      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+      <formula>(C3="XX ")OR (C3="OO ")OR (C3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
@@ -939,7 +990,7 @@
       <formula>(C4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="54">
-      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+      <formula>(C4="XX ")OR (C4="OO ")OR (C4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -959,7 +1010,7 @@
       <formula>(C5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="60">
-      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+      <formula>(C5="XX ")OR (C5="OO ")OR (C5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
@@ -979,7 +1030,7 @@
       <formula>(C6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="66">
-      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+      <formula>(C6="XX ")OR (C6="OO ")OR (C6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
@@ -999,7 +1050,7 @@
       <formula>(C7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="72">
-      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+      <formula>(C7="XX ")OR (C7="OO ")OR (C7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -1019,7 +1070,7 @@
       <formula>(D2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="78">
-      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+      <formula>(D2="XX ")OR (D2="OO ")OR (D2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
@@ -1039,7 +1090,7 @@
       <formula>(D3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="84">
-      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+      <formula>(D3="XX ")OR (D3="OO ")OR (D3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
@@ -1059,7 +1110,7 @@
       <formula>(D4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="90">
-      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+      <formula>(D4="XX ")OR (D4="OO ")OR (D4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
@@ -1079,7 +1130,7 @@
       <formula>(D5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="96">
-      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+      <formula>(D5="XX ")OR (D5="OO ")OR (D5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
@@ -1099,7 +1150,7 @@
       <formula>(D6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="102">
-      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+      <formula>(D6="XX ")OR (D6="OO ")OR (D6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
@@ -1119,7 +1170,7 @@
       <formula>(D7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="108">
-      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+      <formula>(D7="XX ")OR (D7="OO ")OR (D7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
@@ -1139,7 +1190,7 @@
       <formula>(E2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="114">
-      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+      <formula>(E2="XX ")OR (E2="OO ")OR (E2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
@@ -1159,7 +1210,7 @@
       <formula>(E3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="120">
-      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+      <formula>(E3="XX ")OR (E3="OO ")OR (E3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
@@ -1179,7 +1230,7 @@
       <formula>(E4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="126">
-      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+      <formula>(E4="XX ")OR (E4="OO ")OR (E4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
@@ -1199,7 +1250,7 @@
       <formula>(E5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="132">
-      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+      <formula>(E5="XX ")OR (E5="OO ")OR (E5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
@@ -1219,7 +1270,7 @@
       <formula>(E6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="138">
-      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+      <formula>(E6="XX ")OR (E6="OO ")OR (E6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
@@ -1239,7 +1290,7 @@
       <formula>(E7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="144">
-      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+      <formula>(E7="XX ")OR (E7="OO ")OR (E7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
@@ -1259,7 +1310,7 @@
       <formula>(F2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="150">
-      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+      <formula>(F2="XX ")OR (F2="OO ")OR (F2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -1279,7 +1330,7 @@
       <formula>(F3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="156">
-      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+      <formula>(F3="XX ")OR (F3="OO ")OR (F3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
@@ -1299,7 +1350,7 @@
       <formula>(F4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="162">
-      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+      <formula>(F4="XX ")OR (F4="OO ")OR (F4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
@@ -1319,7 +1370,7 @@
       <formula>(F5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="168">
-      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+      <formula>(F5="XX ")OR (F5="OO ")OR (F5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
@@ -1339,7 +1390,7 @@
       <formula>(F6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="174">
-      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+      <formula>(F6="XX ")OR (F6="OO ")OR (F6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
@@ -1359,7 +1410,7 @@
       <formula>(F7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="180">
-      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+      <formula>(F7="XX ")OR (F7="OO ")OR (F7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
@@ -1379,7 +1430,7 @@
       <formula>(G2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="186">
-      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+      <formula>(G2="XX ")OR (G2="OO ")OR (G2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
@@ -1399,7 +1450,7 @@
       <formula>(G3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="192">
-      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+      <formula>(G3="XX ")OR (G3="OO ")OR (G3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
@@ -1419,7 +1470,7 @@
       <formula>(G4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="198">
-      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+      <formula>(G4="XX ")OR (G4="OO ")OR (G4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
@@ -1439,7 +1490,7 @@
       <formula>(G5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="204">
-      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+      <formula>(G5="XX ")OR (G5="OO ")OR (G5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
@@ -1459,7 +1510,7 @@
       <formula>(G6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="210">
-      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+      <formula>(G6="XX ")OR (G6="OO ")OR (G6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
@@ -1479,7 +1530,7 @@
       <formula>(G7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="216">
-      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+      <formula>(G7="XX ")OR (G7="OO ")OR (G7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
@@ -1499,7 +1550,7 @@
       <formula>(H2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="222">
-      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+      <formula>(H2="XX ")OR (H2="OO ")OR (H2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
@@ -1519,7 +1570,7 @@
       <formula>(H3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="228">
-      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+      <formula>(H3="XX ")OR (H3="OO ")OR (H3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
@@ -1539,7 +1590,7 @@
       <formula>(H4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="234">
-      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+      <formula>(H4="XX ")OR (H4="OO ")OR (H4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
@@ -1559,7 +1610,7 @@
       <formula>(H5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="240">
-      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+      <formula>(H5="XX ")OR (H5="OO ")OR (H5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
@@ -1579,7 +1630,7 @@
       <formula>(H6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="246">
-      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+      <formula>(H6="XX ")OR (H6="OO ")OR (H6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
@@ -1599,7 +1650,7 @@
       <formula>(H7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="252">
-      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+      <formula>(H7="XX ")OR (H7="OO ")OR (H7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,23 +1700,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" customHeight="1">
@@ -1673,25 +1724,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1">
@@ -1699,25 +1750,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" customHeight="1">
@@ -1725,23 +1776,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" customHeight="1">
@@ -1752,22 +1803,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" customHeight="1">
@@ -1775,23 +1826,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1863,7 @@
       <formula>(B2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>(B2="XX")OR (B2="OO")OR (B2="TT")</formula>
+      <formula>(B2="XX ")OR (B2="OO ")OR (B2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
@@ -1832,7 +1883,7 @@
       <formula>(B3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>(B3="XX")OR (B3="OO")OR (B3="TT")</formula>
+      <formula>(B3="XX ")OR (B3="OO ")OR (B3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -1852,7 +1903,7 @@
       <formula>(B4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="18">
-      <formula>(B4="XX")OR (B4="OO")OR (B4="TT")</formula>
+      <formula>(B4="XX ")OR (B4="OO ")OR (B4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
@@ -1872,7 +1923,7 @@
       <formula>(B5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="24">
-      <formula>(B5="XX")OR (B5="OO")OR (B5="TT")</formula>
+      <formula>(B5="XX ")OR (B5="OO ")OR (B5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
@@ -1892,7 +1943,7 @@
       <formula>(B6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="30">
-      <formula>(B6="XX")OR (B6="OO")OR (B6="TT")</formula>
+      <formula>(B6="XX ")OR (B6="OO ")OR (B6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
@@ -1912,7 +1963,7 @@
       <formula>(B7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="36">
-      <formula>(B7="XX")OR (B7="OO")OR (B7="TT")</formula>
+      <formula>(B7="XX ")OR (B7="OO ")OR (B7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
@@ -1932,7 +1983,7 @@
       <formula>(C2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="42">
-      <formula>(C2="XX")OR (C2="OO")OR (C2="TT")</formula>
+      <formula>(C2="XX ")OR (C2="OO ")OR (C2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
@@ -1952,7 +2003,7 @@
       <formula>(C3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="48">
-      <formula>(C3="XX")OR (C3="OO")OR (C3="TT")</formula>
+      <formula>(C3="XX ")OR (C3="OO ")OR (C3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
@@ -1972,7 +2023,7 @@
       <formula>(C4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="54">
-      <formula>(C4="XX")OR (C4="OO")OR (C4="TT")</formula>
+      <formula>(C4="XX ")OR (C4="OO ")OR (C4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -1992,7 +2043,7 @@
       <formula>(C5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="60">
-      <formula>(C5="XX")OR (C5="OO")OR (C5="TT")</formula>
+      <formula>(C5="XX ")OR (C5="OO ")OR (C5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
@@ -2012,7 +2063,7 @@
       <formula>(C6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="66">
-      <formula>(C6="XX")OR (C6="OO")OR (C6="TT")</formula>
+      <formula>(C6="XX ")OR (C6="OO ")OR (C6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
@@ -2032,7 +2083,7 @@
       <formula>(C7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="72">
-      <formula>(C7="XX")OR (C7="OO")OR (C7="TT")</formula>
+      <formula>(C7="XX ")OR (C7="OO ")OR (C7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -2052,7 +2103,7 @@
       <formula>(D2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="78">
-      <formula>(D2="XX")OR (D2="OO")OR (D2="TT")</formula>
+      <formula>(D2="XX ")OR (D2="OO ")OR (D2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
@@ -2072,7 +2123,7 @@
       <formula>(D3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="84">
-      <formula>(D3="XX")OR (D3="OO")OR (D3="TT")</formula>
+      <formula>(D3="XX ")OR (D3="OO ")OR (D3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
@@ -2092,7 +2143,7 @@
       <formula>(D4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="90">
-      <formula>(D4="XX")OR (D4="OO")OR (D4="TT")</formula>
+      <formula>(D4="XX ")OR (D4="OO ")OR (D4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
@@ -2112,7 +2163,7 @@
       <formula>(D5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="96">
-      <formula>(D5="XX")OR (D5="OO")OR (D5="TT")</formula>
+      <formula>(D5="XX ")OR (D5="OO ")OR (D5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
@@ -2132,7 +2183,7 @@
       <formula>(D6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="102">
-      <formula>(D6="XX")OR (D6="OO")OR (D6="TT")</formula>
+      <formula>(D6="XX ")OR (D6="OO ")OR (D6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
@@ -2152,7 +2203,7 @@
       <formula>(D7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="108">
-      <formula>(D7="XX")OR (D7="OO")OR (D7="TT")</formula>
+      <formula>(D7="XX ")OR (D7="OO ")OR (D7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
@@ -2172,7 +2223,7 @@
       <formula>(E2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="114">
-      <formula>(E2="XX")OR (E2="OO")OR (E2="TT")</formula>
+      <formula>(E2="XX ")OR (E2="OO ")OR (E2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
@@ -2192,7 +2243,7 @@
       <formula>(E3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="120">
-      <formula>(E3="XX")OR (E3="OO")OR (E3="TT")</formula>
+      <formula>(E3="XX ")OR (E3="OO ")OR (E3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
@@ -2212,7 +2263,7 @@
       <formula>(E4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="126">
-      <formula>(E4="XX")OR (E4="OO")OR (E4="TT")</formula>
+      <formula>(E4="XX ")OR (E4="OO ")OR (E4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
@@ -2232,7 +2283,7 @@
       <formula>(E5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="132">
-      <formula>(E5="XX")OR (E5="OO")OR (E5="TT")</formula>
+      <formula>(E5="XX ")OR (E5="OO ")OR (E5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
@@ -2252,7 +2303,7 @@
       <formula>(E6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="138">
-      <formula>(E6="XX")OR (E6="OO")OR (E6="TT")</formula>
+      <formula>(E6="XX ")OR (E6="OO ")OR (E6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
@@ -2272,7 +2323,7 @@
       <formula>(E7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="144">
-      <formula>(E7="XX")OR (E7="OO")OR (E7="TT")</formula>
+      <formula>(E7="XX ")OR (E7="OO ")OR (E7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
@@ -2292,7 +2343,7 @@
       <formula>(F2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="150">
-      <formula>(F2="XX")OR (F2="OO")OR (F2="TT")</formula>
+      <formula>(F2="XX ")OR (F2="OO ")OR (F2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -2312,7 +2363,7 @@
       <formula>(F3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="156">
-      <formula>(F3="XX")OR (F3="OO")OR (F3="TT")</formula>
+      <formula>(F3="XX ")OR (F3="OO ")OR (F3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
@@ -2332,7 +2383,7 @@
       <formula>(F4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="162">
-      <formula>(F4="XX")OR (F4="OO")OR (F4="TT")</formula>
+      <formula>(F4="XX ")OR (F4="OO ")OR (F4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
@@ -2352,7 +2403,7 @@
       <formula>(F5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="168">
-      <formula>(F5="XX")OR (F5="OO")OR (F5="TT")</formula>
+      <formula>(F5="XX ")OR (F5="OO ")OR (F5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
@@ -2372,7 +2423,7 @@
       <formula>(F6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="174">
-      <formula>(F6="XX")OR (F6="OO")OR (F6="TT")</formula>
+      <formula>(F6="XX ")OR (F6="OO ")OR (F6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
@@ -2392,7 +2443,7 @@
       <formula>(F7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="180">
-      <formula>(F7="XX")OR (F7="OO")OR (F7="TT")</formula>
+      <formula>(F7="XX ")OR (F7="OO ")OR (F7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
@@ -2412,7 +2463,7 @@
       <formula>(G2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="186">
-      <formula>(G2="XX")OR (G2="OO")OR (G2="TT")</formula>
+      <formula>(G2="XX ")OR (G2="OO ")OR (G2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
@@ -2432,7 +2483,7 @@
       <formula>(G3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="192">
-      <formula>(G3="XX")OR (G3="OO")OR (G3="TT")</formula>
+      <formula>(G3="XX ")OR (G3="OO ")OR (G3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
@@ -2452,7 +2503,7 @@
       <formula>(G4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="198">
-      <formula>(G4="XX")OR (G4="OO")OR (G4="TT")</formula>
+      <formula>(G4="XX ")OR (G4="OO ")OR (G4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
@@ -2472,7 +2523,7 @@
       <formula>(G5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="204">
-      <formula>(G5="XX")OR (G5="OO")OR (G5="TT")</formula>
+      <formula>(G5="XX ")OR (G5="OO ")OR (G5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
@@ -2492,7 +2543,7 @@
       <formula>(G6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="210">
-      <formula>(G6="XX")OR (G6="OO")OR (G6="TT")</formula>
+      <formula>(G6="XX ")OR (G6="OO ")OR (G6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
@@ -2512,7 +2563,7 @@
       <formula>(G7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="216">
-      <formula>(G7="XX")OR (G7="OO")OR (G7="TT")</formula>
+      <formula>(G7="XX ")OR (G7="OO ")OR (G7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
@@ -2532,7 +2583,7 @@
       <formula>(H2="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="222">
-      <formula>(H2="XX")OR (H2="OO")OR (H2="TT")</formula>
+      <formula>(H2="XX ")OR (H2="OO ")OR (H2="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
@@ -2552,7 +2603,7 @@
       <formula>(H3="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="228">
-      <formula>(H3="XX")OR (H3="OO")OR (H3="TT")</formula>
+      <formula>(H3="XX ")OR (H3="OO ")OR (H3="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
@@ -2572,7 +2623,7 @@
       <formula>(H4="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="234">
-      <formula>(H4="XX")OR (H4="OO")OR (H4="TT")</formula>
+      <formula>(H4="XX ")OR (H4="OO ")OR (H4="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
@@ -2592,7 +2643,7 @@
       <formula>(H5="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="240">
-      <formula>(H5="XX")OR (H5="OO")OR (H5="TT")</formula>
+      <formula>(H5="XX ")OR (H5="OO ")OR (H5="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
@@ -2612,7 +2663,7 @@
       <formula>(H6="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="246">
-      <formula>(H6="XX")OR (H6="OO")OR (H6="TT")</formula>
+      <formula>(H6="XX ")OR (H6="OO ")OR (H6="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
@@ -2632,7 +2683,7 @@
       <formula>(H7="")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="252">
-      <formula>(H7="XX")OR (H7="OO")OR (H7="TT")</formula>
+      <formula>(H7="XX ")OR (H7="OO ")OR (H7="TT ")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
